--- a/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material/Métricas.xlsx
+++ b/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material/Métricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano\ResNet\Tentativa 1\Com Tentativa 1 - Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41427DF-6DE9-4E5C-AE3B-A7E4C6F61C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD208A42-648A-424A-8822-36D4F4CBF685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,7 +420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,16 +446,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.97990726429675423</v>
+        <v>0.97527047913446674</v>
       </c>
       <c r="C2" s="2">
-        <v>0.45454545454545447</v>
+        <v>0.375</v>
       </c>
       <c r="D2" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="2">
-        <v>0.43478260869565222</v>
+        <v>0.42857142857142849</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -479,16 +480,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.99072642967542501</v>
+        <v>0.98918083462132922</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="2">
-        <v>0.57142857142857151</v>
+        <v>0.46153846153846151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -496,16 +497,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.89644513137557957</v>
+        <v>0.89489953632148378</v>
       </c>
       <c r="C5" s="2">
-        <v>0.35294117647058831</v>
+        <v>0.36585365853658541</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2105263157894737</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E5" s="2">
-        <v>0.26373626373626369</v>
+        <v>0.30612244897959179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,16 +514,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.89489953632148378</v>
+        <v>0.89026275115919629</v>
       </c>
       <c r="C6" s="2">
-        <v>0.914572864321608</v>
+        <v>0.91979522184300344</v>
       </c>
       <c r="D6" s="2">
-        <v>0.96980461811722918</v>
+        <v>0.95737122557726462</v>
       </c>
       <c r="E6" s="2">
-        <v>0.94137931034482758</v>
+        <v>0.93820713664055699</v>
       </c>
     </row>
   </sheetData>
